--- a/Research Question.xlsx
+++ b/Research Question.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leonorbrito/Documents/Master/Thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA17022-C4CB-244D-9CA5-7EF3955C49A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16575CF4-6F57-294B-866D-ECB27E0B39C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1500" windowWidth="27240" windowHeight="14940" xr2:uid="{EE8E5FF0-6A0C-CB49-AEBB-8BF8AE0593D7}"/>
+    <workbookView xWindow="1180" yWindow="1500" windowWidth="27240" windowHeight="14940" activeTab="3" xr2:uid="{EE8E5FF0-6A0C-CB49-AEBB-8BF8AE0593D7}"/>
   </bookViews>
   <sheets>
     <sheet name="papers and data" sheetId="3" r:id="rId1"/>
-    <sheet name="research question" sheetId="5" r:id="rId2"/>
-    <sheet name="variables" sheetId="6" r:id="rId3"/>
-    <sheet name="potential questions" sheetId="1" state="hidden" r:id="rId4"/>
-    <sheet name="papers" sheetId="2" state="hidden" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="9" r:id="rId4"/>
+    <sheet name="research question" sheetId="5" r:id="rId5"/>
+    <sheet name="variables" sheetId="6" r:id="rId6"/>
+    <sheet name="potential questions" sheetId="1" state="hidden" r:id="rId7"/>
+    <sheet name="papers" sheetId="2" state="hidden" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="255">
   <si>
     <t>Emissions + Cropland Nutrient Balance</t>
   </si>
@@ -896,13 +898,789 @@
       </rPr>
       <t xml:space="preserve"> in different agricultural systems, and what implications do these relationships have for sustainable land management and environmental impact?</t>
     </r>
+  </si>
+  <si>
+    <t>Main Research Title:</t>
+  </si>
+  <si>
+    <t>"Assessing the Impact of Agricultural Practices on Crop Yield and Nutrient Use Efficiency: A Multi-Nutrient and Multi-Practice Analysis"</t>
+  </si>
+  <si>
+    <t>Overall Research Question:</t>
+  </si>
+  <si>
+    <t>How do various agricultural practices influence crop yield and nutrient use efficiency (NUE) for Nitrogen (N), Phosphorus (P), and Potassium (K) across different countries and years?</t>
+  </si>
+  <si>
+    <t>Sub-Research Questions and Analysis:</t>
+  </si>
+  <si>
+    <t>Impact of Nutrient Management on Crop Yield</t>
+  </si>
+  <si>
+    <r>
+      <t>Question</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: How does the efficiency of N, P, and K use affect crop yields in different agricultural systems?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Analysis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Correlational and regression analysis to explore the relationship between NUE (for N, P, K separately) and crop yield, adjusting for country and year.</t>
+    </r>
+  </si>
+  <si>
+    <t>Comparative Analysis of Agricultural Practices</t>
+  </si>
+  <si>
+    <r>
+      <t>Question</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: How do different agricultural practices (e.g., pesticide use, land use changes, temperature changes) impact NUE for N, P, and K?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Analysis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Multivariate regression or structural equation modeling to assess the impact of various practices on NUE, with separate models for each nutrient.</t>
+    </r>
+  </si>
+  <si>
+    <t>Temporal and Spatial Trends in NUE and Crop Yield</t>
+  </si>
+  <si>
+    <r>
+      <t>Question</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: What are the temporal and spatial trends in NUE for N, P, and K, and how do these trends correlate with changes in crop yield over time?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Analysis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Time-series analysis and geographic information system (GIS) mapping to identify trends and patterns over time and across different regions.</t>
+    </r>
+  </si>
+  <si>
+    <t>Emission Reductions and Environmental Sustainability</t>
+  </si>
+  <si>
+    <r>
+      <t>Question</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: How does improving NUE contribute to reducing emissions from agricultural practices and enhancing environmental sustainability?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Analysis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Calculate the potential reduction in emissions associated with improved NUE using your emissions dataset, and use regression analysis to link these reductions to specific agricultural practices.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Question</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Based on the findings, what policy and practice recommendations can be made to improve NUE, increase crop yield, and enhance environmental sustainability?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Analysis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Synthesize the results from the above analyses to formulate evidence-based recommendations. Include stakeholder analysis for policy implications.</t>
+    </r>
+  </si>
+  <si>
+    <t>Methodological Considerations:</t>
+  </si>
+  <si>
+    <t>Use statistical and GIS software for data analysis.</t>
+  </si>
+  <si>
+    <t>Consider the use of mixed-effects models to account for the nested structure of the data (e.g., years within countries).</t>
+  </si>
+  <si>
+    <t>Apply machine learning techniques for predictive modeling and to identify the most influential factors affecting NUE and yield.</t>
+  </si>
+  <si>
+    <t>Expected Outcomes:</t>
+  </si>
+  <si>
+    <t>Identification of key factors influencing NUE for N, P, and K.</t>
+  </si>
+  <si>
+    <t>Insights into the effectiveness of different agricultural practices on improving crop yield and nutrient efficiency.</t>
+  </si>
+  <si>
+    <t>Recommendations for policies and practices that could lead to more sustainable agriculture.</t>
+  </si>
+  <si>
+    <r>
+      <t>Outcome Focus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: This angle prioritizes the outcome (yield) and investigates one of its key determinants (NUE). It simplifies the analysis to a direct cause-effect relationship, allowing for a focused assessment of how improvements in nutrient management could lead to increased agricultural productivity.</t>
+    </r>
+  </si>
+  <si>
+    <t>Practice Recommendations?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Impact of Nutrient Management on Crop Yield</t>
+    </r>
+  </si>
+  <si>
+    <t>To explore how nutrient management affects crop yields, focus on:</t>
+  </si>
+  <si>
+    <r>
+      <t>Inputs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>Input Cropland nitrogen</t>
+  </si>
+  <si>
+    <t>Input Cropland phosphorus</t>
+  </si>
+  <si>
+    <t>Input Cropland potassium</t>
+  </si>
+  <si>
+    <t>These variables represent the total amount of each nutrient applied to croplands, encompassing both synthetic and organic sources.</t>
+  </si>
+  <si>
+    <r>
+      <t>Outputs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>Outputs Cropland nitrogen</t>
+  </si>
+  <si>
+    <t>Outputs Cropland phosphorus</t>
+  </si>
+  <si>
+    <t>Outputs Cropland potassium</t>
+  </si>
+  <si>
+    <t>Outputs here refer to the total amount of each nutrient removed from croplands, primarily through crop harvest.</t>
+  </si>
+  <si>
+    <r>
+      <t>Nutrient Balance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>Nutrient balance Cropland nitrogen</t>
+  </si>
+  <si>
+    <t>Nutrient balance Cropland phosphorus</t>
+  </si>
+  <si>
+    <t>Nutrient balance Cropland potassium</t>
+  </si>
+  <si>
+    <t>Nutrient balance variables indicate whether there's a surplus or deficit of nutrients in the soil, which can influence crop yields.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Comparative Analysis of Agricultural Practices</t>
+    </r>
+  </si>
+  <si>
+    <t>For analyzing the effect of agricultural practices on nutrient use efficiency (NUE):</t>
+  </si>
+  <si>
+    <r>
+      <t>NUE Variables</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>Nutrient balance Cropland nitrogen use efficiency</t>
+  </si>
+  <si>
+    <t>Nutrient balance Cropland phosphorus use efficiency</t>
+  </si>
+  <si>
+    <t>Nutrient balance Cropland potassium use efficiency</t>
+  </si>
+  <si>
+    <t>These variables directly measure how efficiently crops use the applied nutrients, which can be influenced by various agricultural practices including land use changes, pesticide applications, and responses to temperature changes.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Temporal and Spatial Trends in NUE and Crop Yield</t>
+    </r>
+  </si>
+  <si>
+    <t>To examine trends over time and across different countries:</t>
+  </si>
+  <si>
+    <t>Utilize the same NUE variables listed above and compare them year-over-year and across different countries to identify trends.</t>
+  </si>
+  <si>
+    <t>Incorporate land use, temperature change, and pesticide use data to explore how these factors may correlate with changes in NUE and crop yield over time.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Emission Reductions and Environmental Sustainability</t>
+    </r>
+  </si>
+  <si>
+    <t>While not directly listed in your variables, understanding the relationship between nutrient management and emissions requires:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Linking </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Inputs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Nutrient Balance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> variables to potential environmental impacts, such as nutrient runoff or leaching, which can be inferred from excessive nutrient balances.</t>
+    </r>
+  </si>
+  <si>
+    <t>Using additional data on emissions from agrifood systems to correlate nutrient management practices with environmental outcomes.</t>
+  </si>
+  <si>
+    <t>Data Analysis Approach:</t>
+  </si>
+  <si>
+    <r>
+      <t>Regression Analysis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: To explore the relationship between nutrient inputs, outputs, balance, NUE, and crop yield, consider using regression models where crop yield is the dependent variable, and the various nutrient management variables are independent variables.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Time-Series Analysis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: For temporal trends, use time-series analysis techniques to examine changes in NUE and crop yield over time.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Geospatial Analysis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: If possible, incorporate geospatial data to visualize and analyze spatial variations in nutrient management and crop yield across different regions.</t>
+    </r>
+  </si>
+  <si>
+    <t>Conclusions and Recommendations:</t>
+  </si>
+  <si>
+    <t>Your analysis could lead to specific recommendations for optimizing nutrient management practices to improve crop yields and reduce environmental impacts. This might include advocating for precision agriculture technologies, promoting practices that enhance NUE, or recommending policy changes to support sustainable nutrient management.</t>
+  </si>
+  <si>
+    <t>By focusing on these variables and analyses, your research will contribute valuable insights into the complex interplay between agricultural practices, nutrient management, and sustainable crop production.</t>
+  </si>
+  <si>
+    <t>what about how do diff agricultural practices and environmental factors and nitrogen, potassium phosphorus use effieciency impact crop yield?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">How does </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nitrogen use efficiency</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> affect </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>crop yield</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">? </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>How do different</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> environmental factors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> impact </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nitrogen use efficiency</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">? </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">How does improving </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nitrogen use efficiency</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> contribute to reducing </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>emissions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from agricultural practices?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nitrogen use efficiency: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cropland nitrogen use efficiency variable</t>
+    </r>
+  </si>
+  <si>
+    <t>variables</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">How do different </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>environmental/agricultural factors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nutrient use efficiency</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (N,P,K)  impact crop yield? </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">environmental factors: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>land use, land cover, temp change</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">nutrient use efficiency: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cropland nitrogen use efficiency, cropland potassium use efficiency, cropland phosphorus use efficiency</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>agricultural factors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: pesticide use, fertilizer use, manure applied to soils</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">emissions: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>direct and indirect N20 emissions</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">potentially SEM to model how environmental/agricultural factors affect nutrient use efficiency which in turn affects crop yield? </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1048,6 +1826,37 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Monaco"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1101,7 +1910,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -1144,11 +1953,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1465,8 +2278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F029D012-6B01-3E4A-82F4-6451AB2CF20B}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1852,11 +2665,468 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6AEAE82-B6F6-E040-8583-6C5A2C9C2F97}">
+  <dimension ref="B2:O43"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:15" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2" s="29" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" ht="20" x14ac:dyDescent="0.2">
+      <c r="B4" s="30" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" ht="19" x14ac:dyDescent="0.2">
+      <c r="B6" s="29" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" ht="20" x14ac:dyDescent="0.2">
+      <c r="B8" s="30" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" ht="19" x14ac:dyDescent="0.2">
+      <c r="B10" s="29" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O11" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" ht="20" x14ac:dyDescent="0.2">
+      <c r="B12" s="31" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" ht="20" x14ac:dyDescent="0.2">
+      <c r="B13" s="31" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" ht="20" x14ac:dyDescent="0.2">
+      <c r="B14" s="31" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" ht="20" x14ac:dyDescent="0.2">
+      <c r="B15" s="31" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" ht="20" x14ac:dyDescent="0.2">
+      <c r="B16" s="31"/>
+    </row>
+    <row r="17" spans="2:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="B17" s="31" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="B18" s="31" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="B19" s="31" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="B20" s="31"/>
+    </row>
+    <row r="21" spans="2:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="B21" s="31" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="B22" s="31" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="B23" s="31" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="B24" s="31"/>
+    </row>
+    <row r="25" spans="2:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="B25" s="31" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="B26" s="31" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="B27" s="31" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="B28" s="31"/>
+    </row>
+    <row r="29" spans="2:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="B29" s="31" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="B30" s="31" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="B31" s="31" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="B33" s="29" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="B35" s="30" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="B36" s="30" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="B37" s="30" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="B39" s="29" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="B41" s="30" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="B42" s="30" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="B43" s="30" t="s">
+        <v>201</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A2DF02-11D7-8A47-9C0C-35B1A4729B95}">
+  <dimension ref="B2:B62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2" s="29" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="B4" s="30" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="B6" s="31" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" s="32" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B8" s="32" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B9" s="32" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="B11" s="30" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="B13" s="31" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B14" s="32" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B15" s="32" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B16" s="32" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="B18" s="30" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="B20" s="31" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="32" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22" s="32" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23" s="32" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="B25" s="30" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="B27" s="29" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="B29" s="30" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="B31" s="31" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B32" s="32" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="32" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" s="32" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="B36" s="30" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="B38" s="29" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="B40" s="30" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="B42" s="30" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="B43" s="30" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="B45" s="29" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="B47" s="30" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="B49" s="30" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="B50" s="30" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="B52" s="29" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="B54" s="31" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="B55" s="31" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="B56" s="31" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="B58" s="29" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="B60" s="30" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="B62" s="30" t="s">
+        <v>242</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A758F9C-7C48-BF41-AA31-1AADB4FB9875}">
+  <dimension ref="B4:B18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B13" s="7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B14" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00ABC278-17F6-A84A-907C-203C9FC244CF}">
   <dimension ref="B2:Z69"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1866,66 +3136,66 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
     </row>
     <row r="3" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
     </row>
     <row r="4" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
@@ -2027,21 +3297,21 @@
       <c r="J26" t="s">
         <v>161</v>
       </c>
-      <c r="N26" s="26" t="s">
+      <c r="N26" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="O26" s="26"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="26"/>
-      <c r="S26" s="26"/>
-      <c r="T26" s="26"/>
-      <c r="U26" s="26"/>
-      <c r="V26" s="26"/>
-      <c r="W26" s="26"/>
-      <c r="X26" s="26"/>
-      <c r="Y26" s="26"/>
-      <c r="Z26" s="26"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="28"/>
+      <c r="S26" s="28"/>
+      <c r="T26" s="28"/>
+      <c r="U26" s="28"/>
+      <c r="V26" s="28"/>
+      <c r="W26" s="28"/>
+      <c r="X26" s="28"/>
+      <c r="Y26" s="28"/>
+      <c r="Z26" s="28"/>
     </row>
     <row r="27" spans="2:26" ht="19" x14ac:dyDescent="0.25">
       <c r="C27" s="20" t="s">
@@ -2050,55 +3320,55 @@
       <c r="J27" t="s">
         <v>162</v>
       </c>
-      <c r="N27" s="26"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="26"/>
-      <c r="S27" s="26"/>
-      <c r="T27" s="26"/>
-      <c r="U27" s="26"/>
-      <c r="V27" s="26"/>
-      <c r="W27" s="26"/>
-      <c r="X27" s="26"/>
-      <c r="Y27" s="26"/>
-      <c r="Z27" s="26"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="28"/>
+      <c r="T27" s="28"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="28"/>
+      <c r="W27" s="28"/>
+      <c r="X27" s="28"/>
+      <c r="Y27" s="28"/>
+      <c r="Z27" s="28"/>
     </row>
     <row r="28" spans="2:26" ht="19" x14ac:dyDescent="0.25">
       <c r="C28" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="N28" s="26"/>
-      <c r="O28" s="26"/>
-      <c r="P28" s="26"/>
-      <c r="Q28" s="26"/>
-      <c r="R28" s="26"/>
-      <c r="S28" s="26"/>
-      <c r="T28" s="26"/>
-      <c r="U28" s="26"/>
-      <c r="V28" s="26"/>
-      <c r="W28" s="26"/>
-      <c r="X28" s="26"/>
-      <c r="Y28" s="26"/>
-      <c r="Z28" s="26"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="28"/>
+      <c r="S28" s="28"/>
+      <c r="T28" s="28"/>
+      <c r="U28" s="28"/>
+      <c r="V28" s="28"/>
+      <c r="W28" s="28"/>
+      <c r="X28" s="28"/>
+      <c r="Y28" s="28"/>
+      <c r="Z28" s="28"/>
     </row>
     <row r="29" spans="2:26" ht="19" x14ac:dyDescent="0.25">
       <c r="C29" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="N29" s="26"/>
-      <c r="O29" s="26"/>
-      <c r="P29" s="26"/>
-      <c r="Q29" s="26"/>
-      <c r="R29" s="26"/>
-      <c r="S29" s="26"/>
-      <c r="T29" s="26"/>
-      <c r="U29" s="26"/>
-      <c r="V29" s="26"/>
-      <c r="W29" s="26"/>
-      <c r="X29" s="26"/>
-      <c r="Y29" s="26"/>
-      <c r="Z29" s="26"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="28"/>
+      <c r="R29" s="28"/>
+      <c r="S29" s="28"/>
+      <c r="T29" s="28"/>
+      <c r="U29" s="28"/>
+      <c r="V29" s="28"/>
+      <c r="W29" s="28"/>
+      <c r="X29" s="28"/>
+      <c r="Y29" s="28"/>
+      <c r="Z29" s="28"/>
     </row>
     <row r="31" spans="2:26" ht="19" x14ac:dyDescent="0.25">
       <c r="B31" s="21" t="s">
@@ -2305,7 +3575,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE81A655-E928-F546-99F7-3BB27008E009}">
   <dimension ref="A3:A10"/>
   <sheetViews>
@@ -2316,7 +3586,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="26" t="s">
         <v>163</v>
       </c>
     </row>
@@ -2336,12 +3606,12 @@
       </c>
     </row>
     <row r="7" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="27" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="27" t="s">
         <v>169</v>
       </c>
     </row>
@@ -2360,7 +3630,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD4E0DF3-29B8-5C44-9D78-8723C58CF3C2}">
   <dimension ref="A2:B17"/>
   <sheetViews>
@@ -2446,7 +3716,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CFD4D1E-887E-394B-8F4D-74C86A5F9E5B}">
   <dimension ref="A1:H10"/>
   <sheetViews>
